--- a/UTS-5_Skor_18224063.xlsx
+++ b/UTS-5_Skor_18224063.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumna\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumna\OneDrive\Documents\GitHub\all-about-me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090BE15F-E51A-4167-A0BC-07FE108611CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0331DB-EA5A-4A01-BBEF-E5C1D9F1DB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10770" xr2:uid="{8AFE3614-8754-EB4D-B44F-1C12FCF6F8C2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>Tiara Kusuma Wardhani</t>
+  </si>
+  <si>
+    <t>Yumna Fathonah Kautsar</t>
   </si>
 </sst>
 </file>
@@ -620,10 +623,10 @@
   <dimension ref="A1:AP82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -1171,40 +1174,76 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="15.75">
-      <c r="A6" s="6"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="7" t="str">
-        <f t="shared" ref="Q6:Q66" si="7">IF(COUNT(M6:P6)=0,"",AVERAGE(M6:P6))</f>
-        <v/>
-      </c>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+    <row r="6" spans="1:42" ht="31.5">
+      <c r="A6" s="6">
+        <v>18224063</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4</v>
+      </c>
+      <c r="F6" s="6">
+        <v>5</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="0"/>
+        <v>4.75</v>
+      </c>
+      <c r="H6" s="6">
+        <v>5</v>
+      </c>
+      <c r="I6" s="6">
+        <v>5</v>
+      </c>
+      <c r="J6" s="6">
+        <v>4</v>
+      </c>
+      <c r="K6" s="6">
+        <v>5</v>
+      </c>
+      <c r="L6" s="7">
+        <f t="shared" si="1"/>
+        <v>4.75</v>
+      </c>
+      <c r="M6" s="6">
+        <v>5</v>
+      </c>
+      <c r="N6" s="6">
+        <v>5</v>
+      </c>
+      <c r="O6" s="6">
+        <v>5</v>
+      </c>
+      <c r="P6" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="7">
+        <f>IF(COUNT(M6:P6)=0,"",AVERAGE(M6:P6))</f>
+        <v>5</v>
+      </c>
+      <c r="R6" s="6">
+        <v>5</v>
+      </c>
+      <c r="S6" s="6">
+        <v>5</v>
+      </c>
+      <c r="T6" s="6">
+        <v>5</v>
+      </c>
+      <c r="U6" s="6">
+        <v>5</v>
+      </c>
+      <c r="V6" s="7">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
@@ -1254,7 +1293,7 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="Q7:Q66" si="7">IF(COUNT(M7:P7)=0,"",AVERAGE(M7:P7))</f>
         <v/>
       </c>
       <c r="R7" s="6"/>

--- a/UTS-5_Skor_18224063.xlsx
+++ b/UTS-5_Skor_18224063.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumna\OneDrive\Documents\GitHub\all-about-me\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0a23b05621a4edf8/Documents/GitHub/all-about-me/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0331DB-EA5A-4A01-BBEF-E5C1D9F1DB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{7D0331DB-EA5A-4A01-BBEF-E5C1D9F1DB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FEF7AAE-2AB7-4AA6-9FDB-6FFCF585D4A8}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10770" xr2:uid="{8AFE3614-8754-EB4D-B44F-1C12FCF6F8C2}"/>
   </bookViews>
@@ -623,10 +623,10 @@
   <dimension ref="A1:AP82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -893,12 +893,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="34.5">
+    <row r="3" spans="1:42" ht="31.5">
       <c r="A3" s="6">
-        <v>18224019</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>46</v>
+        <v>18224063</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="C3" s="6">
         <v>5</v>
@@ -913,24 +913,24 @@
         <v>5</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G66" si="0">IF(COUNT(C3:F3)=0,"",AVERAGE(C3:F3))</f>
+        <f>IF(COUNT(C3:F3)=0,"",AVERAGE(C3:F3))</f>
         <v>4.75</v>
       </c>
       <c r="H3" s="6">
+        <v>5</v>
+      </c>
+      <c r="I3" s="6">
+        <v>5</v>
+      </c>
+      <c r="J3" s="6">
         <v>4</v>
       </c>
-      <c r="I3" s="6">
-        <v>5</v>
-      </c>
-      <c r="J3" s="6">
-        <v>3</v>
-      </c>
       <c r="K3" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L3" s="7">
-        <f t="shared" ref="L3:L66" si="1">IF(COUNT(H3:K3)=0,"",AVERAGE(H3:K3))</f>
-        <v>4</v>
+        <f>IF(COUNT(H3:K3)=0,"",AVERAGE(H3:K3))</f>
+        <v>4.75</v>
       </c>
       <c r="M3" s="6">
         <v>5</v>
@@ -945,6 +945,7 @@
         <v>5</v>
       </c>
       <c r="Q3" s="7">
+        <f>IF(COUNT(M3:P3)=0,"",AVERAGE(M3:P3))</f>
         <v>5</v>
       </c>
       <c r="R3" s="6">
@@ -960,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="V3" s="7">
-        <f t="shared" ref="V3:V66" si="2">IF(COUNT(R3:U3)=0,"",AVERAGE(R3:U3))</f>
+        <f>IF(COUNT(R3:U3)=0,"",AVERAGE(R3:U3))</f>
         <v>5</v>
       </c>
       <c r="W3" s="6"/>
@@ -968,31 +969,31 @@
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
       <c r="AA3" s="7" t="str">
-        <f t="shared" ref="AA3:AA66" si="3">IF(COUNT(W3:Z3)=0,"",AVERAGE(W3:Z3))</f>
+        <f t="shared" ref="AA3:AA66" si="0">IF(COUNT(W3:Z3)=0,"",AVERAGE(W3:Z3))</f>
         <v/>
       </c>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
       <c r="AF3" s="4" t="str">
-        <f t="shared" ref="AF3:AF66" si="4">IF(COUNT(AB3:AE3)=0,"",AVERAGE(AB3:AE3))</f>
+        <f t="shared" ref="AF3:AF66" si="1">IF(COUNT(AB3:AE3)=0,"",AVERAGE(AB3:AE3))</f>
         <v/>
       </c>
       <c r="AK3" s="4" t="str">
-        <f t="shared" ref="AK3:AK66" si="5">IF(COUNT(AG3:AJ3)=0,"",AVERAGE(AG3:AJ3))</f>
+        <f t="shared" ref="AK3:AK66" si="2">IF(COUNT(AG3:AJ3)=0,"",AVERAGE(AG3:AJ3))</f>
         <v/>
       </c>
       <c r="AP3" s="4" t="str">
-        <f t="shared" ref="AP3:AP66" si="6">IF(COUNT(AL3:AO3)=0,"",AVERAGE(AL3:AO3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:42" ht="31.5">
+        <f t="shared" ref="AP3:AP66" si="3">IF(COUNT(AL3:AO3)=0,"",AVERAGE(AL3:AO3))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:42" ht="34.5">
       <c r="A4" s="6">
-        <v>18224059</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>49</v>
+        <v>18224019</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="C4" s="6">
         <v>5</v>
@@ -1007,23 +1008,24 @@
         <v>5</v>
       </c>
       <c r="G4" s="7">
-        <f t="shared" si="0"/>
+        <f>IF(COUNT(C4:F4)=0,"",AVERAGE(C4:F4))</f>
         <v>4.75</v>
       </c>
       <c r="H4" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I4" s="6">
         <v>5</v>
       </c>
       <c r="J4" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K4" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L4" s="7">
-        <v>5</v>
+        <f>IF(COUNT(H4:K4)=0,"",AVERAGE(H4:K4))</f>
+        <v>4</v>
       </c>
       <c r="M4" s="6">
         <v>5</v>
@@ -1050,42 +1052,42 @@
         <v>5</v>
       </c>
       <c r="U4" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V4" s="7">
-        <f t="shared" si="2"/>
-        <v>4.75</v>
+        <f>IF(COUNT(R4:U4)=0,"",AVERAGE(R4:U4))</f>
+        <v>5</v>
       </c>
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
       <c r="AF4" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK4" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP4" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:42" ht="31.5">
-      <c r="A5" s="8" t="s">
-        <v>47</v>
+      <c r="A5" s="6">
+        <v>18224059</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" s="6">
         <v>5</v>
@@ -1094,92 +1096,91 @@
         <v>5</v>
       </c>
       <c r="E5" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="6">
+        <v>5</v>
+      </c>
+      <c r="G5" s="7">
+        <f>IF(COUNT(C5:F5)=0,"",AVERAGE(C5:F5))</f>
+        <v>4.75</v>
+      </c>
+      <c r="H5" s="6">
+        <v>5</v>
+      </c>
+      <c r="I5" s="6">
+        <v>5</v>
+      </c>
+      <c r="J5" s="6">
+        <v>5</v>
+      </c>
+      <c r="K5" s="6">
+        <v>5</v>
+      </c>
+      <c r="L5" s="7">
+        <v>5</v>
+      </c>
+      <c r="M5" s="6">
+        <v>5</v>
+      </c>
+      <c r="N5" s="6">
+        <v>5</v>
+      </c>
+      <c r="O5" s="6">
+        <v>5</v>
+      </c>
+      <c r="P5" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>5</v>
+      </c>
+      <c r="R5" s="6">
+        <v>5</v>
+      </c>
+      <c r="S5" s="6">
+        <v>5</v>
+      </c>
+      <c r="T5" s="6">
+        <v>5</v>
+      </c>
+      <c r="U5" s="6">
         <v>4</v>
       </c>
-      <c r="G5" s="7">
-        <f t="shared" si="0"/>
+      <c r="V5" s="7">
+        <f>IF(COUNT(R5:U5)=0,"",AVERAGE(R5:U5))</f>
         <v>4.75</v>
-      </c>
-      <c r="H5" s="6">
-        <v>3</v>
-      </c>
-      <c r="I5" s="6">
-        <v>5</v>
-      </c>
-      <c r="J5" s="6">
-        <v>5</v>
-      </c>
-      <c r="K5" s="6">
-        <v>5</v>
-      </c>
-      <c r="L5" s="7">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-      <c r="M5" s="6">
-        <v>5</v>
-      </c>
-      <c r="N5" s="6">
-        <v>5</v>
-      </c>
-      <c r="O5" s="6">
-        <v>5</v>
-      </c>
-      <c r="P5" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>5</v>
-      </c>
-      <c r="R5" s="6">
-        <v>5</v>
-      </c>
-      <c r="S5" s="6">
-        <v>5</v>
-      </c>
-      <c r="T5" s="6">
-        <v>5</v>
-      </c>
-      <c r="U5" s="6">
-        <v>5</v>
-      </c>
-      <c r="V5" s="7">
-        <f t="shared" si="2"/>
-        <v>5</v>
       </c>
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
       <c r="AD5" s="6"/>
       <c r="AF5" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK5" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP5" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:42" ht="31.5">
-      <c r="A6" s="6">
-        <v>18224063</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>50</v>
+      <c r="A6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="C6" s="6">
         <v>5</v>
@@ -1188,30 +1189,30 @@
         <v>5</v>
       </c>
       <c r="E6" s="6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="6">
         <v>4</v>
       </c>
-      <c r="F6" s="6">
-        <v>5</v>
-      </c>
       <c r="G6" s="7">
-        <f t="shared" si="0"/>
+        <f>IF(COUNT(C6:F6)=0,"",AVERAGE(C6:F6))</f>
         <v>4.75</v>
       </c>
       <c r="H6" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I6" s="6">
         <v>5</v>
       </c>
       <c r="J6" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K6" s="6">
         <v>5</v>
       </c>
       <c r="L6" s="7">
-        <f t="shared" si="1"/>
-        <v>4.75</v>
+        <f>IF(COUNT(H6:K6)=0,"",AVERAGE(H6:K6))</f>
+        <v>4.5</v>
       </c>
       <c r="M6" s="6">
         <v>5</v>
@@ -1226,7 +1227,6 @@
         <v>5</v>
       </c>
       <c r="Q6" s="7">
-        <f>IF(COUNT(M6:P6)=0,"",AVERAGE(M6:P6))</f>
         <v>5</v>
       </c>
       <c r="R6" s="6">
@@ -1242,7 +1242,7 @@
         <v>5</v>
       </c>
       <c r="V6" s="7">
-        <f t="shared" si="2"/>
+        <f>IF(COUNT(R6:U6)=0,"",AVERAGE(R6:U6))</f>
         <v>5</v>
       </c>
       <c r="W6" s="6"/>
@@ -1250,22 +1250,22 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
       <c r="AD6" s="6"/>
       <c r="AF6" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK6" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP6" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1276,55 +1276,43 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="G7" s="7"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="L7" s="7"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
-      <c r="Q7" s="7" t="str">
-        <f t="shared" ref="Q7:Q66" si="7">IF(COUNT(M7:P7)=0,"",AVERAGE(M7:P7))</f>
-        <v/>
-      </c>
+      <c r="Q7" s="7"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
-      <c r="V7" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="V7" s="7"/>
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
       <c r="AF7" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK7" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP7" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1336,7 +1324,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G3:G66" si="4">IF(COUNT(C8:F8)=0,"",AVERAGE(C8:F8))</f>
         <v/>
       </c>
       <c r="H8" s="6"/>
@@ -1344,7 +1332,7 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L3:L66" si="5">IF(COUNT(H8:K8)=0,"",AVERAGE(H8:K8))</f>
         <v/>
       </c>
       <c r="M8" s="6"/>
@@ -1352,7 +1340,7 @@
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="Q7:Q66" si="6">IF(COUNT(M8:P8)=0,"",AVERAGE(M8:P8))</f>
         <v/>
       </c>
       <c r="R8" s="6"/>
@@ -1360,7 +1348,7 @@
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
       <c r="V8" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="V3:V66" si="7">IF(COUNT(R8:U8)=0,"",AVERAGE(R8:U8))</f>
         <v/>
       </c>
       <c r="W8" s="6"/>
@@ -1368,22 +1356,22 @@
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
       <c r="AA8" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
       <c r="AD8" s="6"/>
       <c r="AF8" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK8" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP8" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1395,7 +1383,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H9" s="6"/>
@@ -1403,7 +1391,7 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M9" s="6"/>
@@ -1411,7 +1399,7 @@
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R9" s="6"/>
@@ -1419,7 +1407,7 @@
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
       <c r="V9" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W9" s="6"/>
@@ -1427,22 +1415,22 @@
       <c r="Y9" s="6"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AB9" s="6"/>
       <c r="AC9" s="6"/>
       <c r="AD9" s="6"/>
       <c r="AF9" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK9" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP9" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1454,7 +1442,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H10" s="6"/>
@@ -1462,7 +1450,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M10" s="6"/>
@@ -1470,7 +1458,7 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R10" s="6"/>
@@ -1478,7 +1466,7 @@
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
       <c r="V10" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W10" s="6"/>
@@ -1486,22 +1474,22 @@
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AB10" s="6"/>
       <c r="AC10" s="6"/>
       <c r="AD10" s="6"/>
       <c r="AF10" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK10" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP10" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1513,7 +1501,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H11" s="6"/>
@@ -1521,7 +1509,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M11" s="6"/>
@@ -1529,7 +1517,7 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R11" s="6"/>
@@ -1537,7 +1525,7 @@
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
       <c r="V11" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W11" s="6"/>
@@ -1545,22 +1533,22 @@
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
       <c r="AD11" s="6"/>
       <c r="AF11" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK11" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP11" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1572,7 +1560,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H12" s="6"/>
@@ -1580,7 +1568,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M12" s="6"/>
@@ -1588,7 +1576,7 @@
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R12" s="6"/>
@@ -1596,7 +1584,7 @@
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
       <c r="V12" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W12" s="6"/>
@@ -1604,22 +1592,22 @@
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
       <c r="AD12" s="6"/>
       <c r="AF12" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK12" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP12" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1631,7 +1619,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H13" s="6"/>
@@ -1639,7 +1627,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M13" s="6"/>
@@ -1647,7 +1635,7 @@
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R13" s="6"/>
@@ -1655,7 +1643,7 @@
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
       <c r="V13" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W13" s="6"/>
@@ -1663,22 +1651,22 @@
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
       <c r="AA13" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AB13" s="6"/>
       <c r="AC13" s="6"/>
       <c r="AD13" s="6"/>
       <c r="AF13" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK13" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP13" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1690,7 +1678,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H14" s="6"/>
@@ -1698,7 +1686,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M14" s="6"/>
@@ -1706,7 +1694,7 @@
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R14" s="6"/>
@@ -1714,7 +1702,7 @@
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
       <c r="V14" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W14" s="6"/>
@@ -1722,22 +1710,22 @@
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
       <c r="AA14" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
       <c r="AD14" s="6"/>
       <c r="AF14" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK14" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP14" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1749,7 +1737,7 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H15" s="6"/>
@@ -1757,7 +1745,7 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M15" s="6"/>
@@ -1765,7 +1753,7 @@
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R15" s="6"/>
@@ -1773,7 +1761,7 @@
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
       <c r="V15" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W15" s="6"/>
@@ -1781,22 +1769,22 @@
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
       <c r="AA15" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
       <c r="AD15" s="6"/>
       <c r="AF15" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK15" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP15" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1806,7 +1794,7 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H16" s="6"/>
@@ -1814,7 +1802,7 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M16" s="6"/>
@@ -1822,7 +1810,7 @@
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R16" s="6"/>
@@ -1830,7 +1818,7 @@
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
       <c r="V16" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W16" s="6"/>
@@ -1838,22 +1826,22 @@
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
       <c r="AD16" s="6"/>
       <c r="AF16" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK16" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP16" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1863,7 +1851,7 @@
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H17" s="6"/>
@@ -1871,7 +1859,7 @@
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M17" s="6"/>
@@ -1879,7 +1867,7 @@
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R17" s="6"/>
@@ -1887,7 +1875,7 @@
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
       <c r="V17" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W17" s="6"/>
@@ -1895,22 +1883,22 @@
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
       <c r="AD17" s="6"/>
       <c r="AF17" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK17" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP17" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1920,7 +1908,7 @@
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H18" s="6"/>
@@ -1928,7 +1916,7 @@
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M18" s="6"/>
@@ -1936,7 +1924,7 @@
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R18" s="6"/>
@@ -1944,7 +1932,7 @@
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
       <c r="V18" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W18" s="6"/>
@@ -1952,22 +1940,22 @@
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
       <c r="AA18" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AB18" s="6"/>
       <c r="AC18" s="6"/>
       <c r="AD18" s="6"/>
       <c r="AF18" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK18" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP18" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1977,7 +1965,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H19" s="6"/>
@@ -1985,7 +1973,7 @@
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M19" s="6"/>
@@ -1993,7 +1981,7 @@
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R19" s="6"/>
@@ -2001,7 +1989,7 @@
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
       <c r="V19" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W19" s="6"/>
@@ -2009,22 +1997,22 @@
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
       <c r="AA19" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AB19" s="6"/>
       <c r="AC19" s="6"/>
       <c r="AD19" s="6"/>
       <c r="AF19" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK19" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP19" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2034,7 +2022,7 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H20" s="6"/>
@@ -2042,7 +2030,7 @@
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M20" s="6"/>
@@ -2050,7 +2038,7 @@
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R20" s="6"/>
@@ -2058,7 +2046,7 @@
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
       <c r="V20" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W20" s="6"/>
@@ -2066,22 +2054,22 @@
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
       <c r="AA20" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AB20" s="6"/>
       <c r="AC20" s="6"/>
       <c r="AD20" s="6"/>
       <c r="AF20" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK20" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP20" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2091,7 +2079,7 @@
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H21" s="6"/>
@@ -2099,7 +2087,7 @@
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M21" s="6"/>
@@ -2107,7 +2095,7 @@
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R21" s="6"/>
@@ -2115,7 +2103,7 @@
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
       <c r="V21" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W21" s="6"/>
@@ -2123,22 +2111,22 @@
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
       <c r="AA21" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AB21" s="6"/>
       <c r="AC21" s="6"/>
       <c r="AD21" s="6"/>
       <c r="AF21" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK21" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP21" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2148,7 +2136,7 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H22" s="6"/>
@@ -2156,7 +2144,7 @@
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M22" s="6"/>
@@ -2164,7 +2152,7 @@
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R22" s="6"/>
@@ -2172,7 +2160,7 @@
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
       <c r="V22" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W22" s="6"/>
@@ -2180,22 +2168,22 @@
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
       <c r="AA22" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AB22" s="6"/>
       <c r="AC22" s="6"/>
       <c r="AD22" s="6"/>
       <c r="AF22" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK22" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP22" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2205,7 +2193,7 @@
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H23" s="6"/>
@@ -2213,7 +2201,7 @@
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M23" s="6"/>
@@ -2221,7 +2209,7 @@
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R23" s="6"/>
@@ -2229,7 +2217,7 @@
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
       <c r="V23" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W23" s="6"/>
@@ -2237,22 +2225,22 @@
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
       <c r="AA23" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AB23" s="6"/>
       <c r="AC23" s="6"/>
       <c r="AD23" s="6"/>
       <c r="AF23" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK23" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP23" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2262,7 +2250,7 @@
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H24" s="6"/>
@@ -2270,7 +2258,7 @@
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M24" s="6"/>
@@ -2278,7 +2266,7 @@
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R24" s="6"/>
@@ -2286,7 +2274,7 @@
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W24" s="6"/>
@@ -2294,22 +2282,22 @@
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
       <c r="AA24" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AB24" s="6"/>
       <c r="AC24" s="6"/>
       <c r="AD24" s="6"/>
       <c r="AF24" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK24" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP24" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2319,7 +2307,7 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H25" s="6"/>
@@ -2327,7 +2315,7 @@
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M25" s="6"/>
@@ -2335,7 +2323,7 @@
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R25" s="6"/>
@@ -2343,7 +2331,7 @@
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
       <c r="V25" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W25" s="6"/>
@@ -2351,22 +2339,22 @@
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
       <c r="AA25" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AB25" s="6"/>
       <c r="AC25" s="6"/>
       <c r="AD25" s="6"/>
       <c r="AF25" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK25" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP25" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2376,7 +2364,7 @@
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H26" s="6"/>
@@ -2384,7 +2372,7 @@
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M26" s="6"/>
@@ -2392,7 +2380,7 @@
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R26" s="6"/>
@@ -2400,7 +2388,7 @@
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
       <c r="V26" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W26" s="6"/>
@@ -2408,22 +2396,22 @@
       <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
       <c r="AA26" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AB26" s="6"/>
       <c r="AC26" s="6"/>
       <c r="AD26" s="6"/>
       <c r="AF26" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK26" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP26" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2433,7 +2421,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H27" s="6"/>
@@ -2441,7 +2429,7 @@
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M27" s="6"/>
@@ -2449,7 +2437,7 @@
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R27" s="6"/>
@@ -2457,7 +2445,7 @@
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
       <c r="V27" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W27" s="6"/>
@@ -2465,22 +2453,22 @@
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
       <c r="AA27" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AB27" s="6"/>
       <c r="AC27" s="6"/>
       <c r="AD27" s="6"/>
       <c r="AF27" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK27" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP27" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2490,7 +2478,7 @@
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="H28" s="6"/>
@@ -2498,7 +2486,7 @@
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M28" s="6"/>
@@ -2506,7 +2494,7 @@
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R28" s="6"/>
@@ -2514,7 +2502,7 @@
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
       <c r="V28" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W28" s="6"/>
@@ -2522,1314 +2510,1314 @@
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
       <c r="AA28" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AB28" s="6"/>
       <c r="AC28" s="6"/>
       <c r="AD28" s="6"/>
       <c r="AF28" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK28" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP28" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="3:42">
       <c r="G29" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L29" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q29" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V29" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA29" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AF29" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK29" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP29" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="3:42">
       <c r="G30" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L30" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q30" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V30" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA30" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AF30" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK30" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP30" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="3:42">
       <c r="G31" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L31" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q31" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V31" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA31" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AF31" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK31" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP31" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="3:42">
       <c r="G32" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L32" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q32" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V32" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA32" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AF32" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK32" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP32" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="7:42">
       <c r="G33" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L33" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q33" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V33" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA33" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AF33" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK33" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP33" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="7:42">
       <c r="G34" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L34" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q34" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V34" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA34" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AF34" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK34" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP34" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="7:42">
       <c r="G35" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L35" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q35" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V35" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA35" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AF35" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK35" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP35" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="7:42">
       <c r="G36" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L36" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q36" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V36" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA36" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AF36" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK36" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP36" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="7:42">
       <c r="G37" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L37" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q37" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V37" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA37" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AF37" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK37" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP37" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="7:42">
       <c r="G38" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L38" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q38" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V38" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA38" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AF38" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK38" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP38" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="7:42">
       <c r="G39" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L39" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q39" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V39" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA39" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AF39" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK39" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP39" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="40" spans="7:42">
       <c r="G40" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L40" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q40" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V40" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA40" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AF40" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK40" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP40" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="41" spans="7:42">
       <c r="G41" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L41" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q41" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V41" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA41" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AF41" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK41" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP41" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="42" spans="7:42">
       <c r="G42" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L42" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q42" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V42" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA42" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AF42" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK42" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP42" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="43" spans="7:42">
       <c r="G43" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L43" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q43" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V43" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA43" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AF43" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK43" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP43" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="44" spans="7:42">
       <c r="G44" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L44" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q44" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V44" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA44" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AF44" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK44" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP44" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="45" spans="7:42">
       <c r="G45" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L45" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q45" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V45" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA45" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AF45" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK45" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP45" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="46" spans="7:42">
       <c r="G46" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L46" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q46" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V46" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA46" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AF46" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK46" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP46" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="47" spans="7:42">
       <c r="G47" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L47" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q47" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V47" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA47" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AF47" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK47" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP47" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="48" spans="7:42">
       <c r="G48" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L48" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q48" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V48" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA48" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AF48" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK48" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP48" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="49" spans="7:42">
       <c r="G49" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L49" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q49" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V49" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA49" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AF49" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK49" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP49" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="50" spans="7:42">
       <c r="G50" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L50" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q50" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V50" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA50" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AF50" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK50" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP50" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="51" spans="7:42">
       <c r="G51" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L51" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q51" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V51" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA51" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AF51" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK51" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP51" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="52" spans="7:42">
       <c r="G52" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L52" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q52" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V52" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA52" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AF52" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK52" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP52" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="53" spans="7:42">
       <c r="G53" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L53" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q53" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V53" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA53" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AF53" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK53" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP53" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="7:42">
       <c r="G54" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L54" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q54" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V54" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA54" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AF54" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK54" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP54" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="7:42">
       <c r="G55" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L55" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q55" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V55" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA55" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AF55" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK55" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP55" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="7:42">
       <c r="G56" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L56" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q56" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V56" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA56" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AF56" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK56" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP56" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="7:42">
       <c r="G57" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L57" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q57" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V57" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA57" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AF57" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK57" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP57" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="7:42">
       <c r="G58" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L58" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q58" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V58" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA58" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AF58" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK58" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP58" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="7:42">
       <c r="G59" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L59" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q59" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V59" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA59" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AF59" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK59" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP59" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="7:42">
       <c r="G60" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L60" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q60" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V60" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA60" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AF60" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK60" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP60" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="7:42">
       <c r="G61" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L61" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q61" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V61" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA61" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AF61" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK61" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP61" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="7:42">
       <c r="G62" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L62" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q62" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V62" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA62" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AF62" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK62" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP62" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="7:42">
       <c r="G63" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L63" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q63" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V63" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA63" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AF63" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK63" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP63" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="7:42">
       <c r="G64" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L64" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q64" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V64" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA64" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AF64" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK64" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP64" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="7:42">
       <c r="G65" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L65" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q65" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V65" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA65" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AF65" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK65" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP65" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="66" spans="7:42">
       <c r="G66" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L66" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q66" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="V66" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AA66" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AF66" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="AK66" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AP66" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -4379,7 +4367,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Skor 1–5" prompt="Masukkan nilai antara 1 dan 5 (boleh desimal)." sqref="AL3:AO82 AG3:AJ82 AB3:AE82 W3:Z82 R3:U82 M3:P82 H3:K82 C3:F82" xr:uid="{B0F61EF9-DC4B-1D4B-A700-95D0E3F024E2}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Skor 1–5" prompt="Masukkan nilai antara 1 dan 5 (boleh desimal)." sqref="AL3:AO82 AG3:AJ82 AB3:AE82 W3:Z82 C3:F82 H3:K82 M3:P82 R3:U82" xr:uid="{B0F61EF9-DC4B-1D4B-A700-95D0E3F024E2}">
       <formula1>1</formula1>
       <formula2>5</formula2>
     </dataValidation>
